--- a/final_data_pipeline/output/322291longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/322291longform_elec_options_nowhp.xlsx
@@ -608,7 +608,7 @@
         <v>33</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -623,10 +623,10 @@
         <v>2124938.387822535</v>
       </c>
       <c r="N3">
-        <v>1.25875</v>
+        <v>1.181188907392658</v>
       </c>
       <c r="O3">
-        <v>1.318088235294118</v>
+        <v>1.232403941639294</v>
       </c>
       <c r="P3">
         <v>265.6172984778169</v>
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -676,10 +676,10 @@
         <v>2372685.424883977</v>
       </c>
       <c r="N4">
-        <v>1.25875</v>
+        <v>1.194245973645681</v>
       </c>
       <c r="O4">
-        <v>1.318088235294118</v>
+        <v>1.246785162287481</v>
       </c>
       <c r="P4">
         <v>296.5856781104972</v>
@@ -873,7 +873,7 @@
         <v>33</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -888,10 +888,10 @@
         <v>987356.7481572829</v>
       </c>
       <c r="N8">
-        <v>1.25875</v>
+        <v>1.331198999020781</v>
       </c>
       <c r="O8">
-        <v>1.318088235294118</v>
+        <v>1.39868801294648</v>
       </c>
       <c r="P8">
         <v>123.4195935196604</v>
@@ -926,7 +926,7 @@
         <v>33</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -941,10 +941,10 @@
         <v>1256343.936213275</v>
       </c>
       <c r="N9">
-        <v>1.25875</v>
+        <v>1.342924567132234</v>
       </c>
       <c r="O9">
-        <v>1.318088235294118</v>
+        <v>1.411784266254412</v>
       </c>
       <c r="P9">
         <v>157.0429920266594</v>
